--- a/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataArrayInitTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataArrayInitTest.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="147">
   <si>
-    <t xml:space="preserve">Data TestHelperDataBean_v10 testArray </t>
-  </si>
-  <si>
     <t>_PK_</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>Datatype TestHelperDataBean_v10</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -397,18 +391,9 @@
     <t>Policy_123</t>
   </si>
   <si>
-    <t>Vehicle_123</t>
-  </si>
-  <si>
     <t>Datatype Policy_123</t>
   </si>
   <si>
-    <t>Datatype Vehicle_123</t>
-  </si>
-  <si>
-    <t>Vehicle_123[]</t>
-  </si>
-  <si>
     <t>addressArry</t>
   </si>
   <si>
@@ -421,27 +406,12 @@
     <t>addressArry[2].zip</t>
   </si>
   <si>
-    <t>Datatype Address_123</t>
-  </si>
-  <si>
-    <t>Address_123[]</t>
-  </si>
-  <si>
     <t>&gt; testArray.addressArry</t>
   </si>
   <si>
-    <t>Address_123</t>
-  </si>
-  <si>
     <t>Test returnAddressArry returnAddressArryTest</t>
   </si>
   <si>
-    <t>Spreadsheet Address_123[] returnAddressArry(Address_123[] tdata)</t>
-  </si>
-  <si>
-    <t>Value:Address_123[]</t>
-  </si>
-  <si>
     <t>tdata[0].zip</t>
   </si>
   <si>
@@ -455,6 +425,36 @@
   </si>
   <si>
     <t>tdata[2].zip2</t>
+  </si>
+  <si>
+    <t>Datatype Address_1</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>Spreadsheet Address_1[] returnAddressArry(Address_1[] tdata)</t>
+  </si>
+  <si>
+    <t>Value:Address_1[]</t>
+  </si>
+  <si>
+    <t>Datatype Vehicle_1</t>
+  </si>
+  <si>
+    <t>Vehicle_1[]</t>
+  </si>
+  <si>
+    <t>Address_1[]</t>
+  </si>
+  <si>
+    <t>Vehicle_1</t>
+  </si>
+  <si>
+    <t>Datatype TestHelperDataBean_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data TestHelperDataBean_v1 testArray </t>
   </si>
 </sst>
 </file>
@@ -1312,16 +1312,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,46 +1701,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="22"/>
@@ -1760,82 +1760,82 @@
     </row>
     <row r="10" spans="2:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="N11" s="17"/>
     </row>
@@ -1857,19 +1857,19 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="K12" s="3">
         <v>2011</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="9">
         <v>78638</v>
@@ -1905,19 +1905,19 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="K13" s="3">
         <v>2012</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="9">
         <v>90250</v>
@@ -1953,19 +1953,19 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="3">
         <v>2012</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9">
         <v>78638</v>
@@ -1999,19 +1999,19 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="K15" s="3">
         <v>2012</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="9">
         <v>84509</v>
@@ -2047,19 +2047,19 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="K16" s="3">
         <v>2012</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="9">
         <v>90250</v>
@@ -2093,19 +2093,19 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="K17" s="3">
         <v>2012</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="9">
         <v>95416</v>
@@ -2139,19 +2139,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K18" s="3">
         <v>2012</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="9">
         <v>85766</v>
@@ -2185,19 +2185,19 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3">
         <v>2012</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="9">
         <v>73623</v>
@@ -2231,19 +2231,19 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="3">
         <v>2012</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="9">
         <v>55620</v>
@@ -2277,19 +2277,19 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="K21" s="3">
         <v>2012</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9">
         <v>65478</v>
@@ -2323,19 +2323,19 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="K22" s="3">
         <v>2012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22" s="9">
         <v>65478</v>
@@ -2369,19 +2369,19 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="K23" s="10">
         <v>2012</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="9">
         <v>63633</v>
@@ -2412,19 +2412,19 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="K24" s="3">
         <v>2012</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24" s="9">
         <v>51267</v>
@@ -2455,19 +2455,19 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="3">
         <v>2012</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25" s="9">
         <v>23822</v>
@@ -2498,19 +2498,19 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="K26" s="3">
         <v>2012</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26" s="9">
         <v>75975</v>
@@ -2529,184 +2529,184 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="53"/>
+      <c r="C30" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="55"/>
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C32" s="33" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>66</v>
       </c>
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>69</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="53"/>
+      <c r="C46" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="55"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
@@ -2714,267 +2714,267 @@
         <v>138</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="53"/>
+      <c r="C85" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="55"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="53"/>
+      <c r="D89" s="55"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E94" s="33"/>
       <c r="F94" s="33"/>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
@@ -3032,20 +3032,20 @@
       <c r="G96" s="33"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="53"/>
+      <c r="C98" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="55"/>
       <c r="E98" s="33"/>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C99" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
@@ -3053,30 +3053,30 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C100" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C103" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" s="53"/>
+      <c r="C103" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="55"/>
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C104" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
@@ -3085,15 +3085,15 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C105" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E105" s="33"/>
       <c r="F105" s="33"/>
       <c r="G105" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H105" s="33"/>
     </row>
@@ -3110,24 +3110,24 @@
       <c r="H109" s="33"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
+      <c r="B111" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="35" t="s">
-        <v>48</v>
-      </c>
       <c r="D112" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="35"/>
@@ -3135,40 +3135,40 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" s="34"/>
       <c r="D113" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C115" s="55"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="55"/>
+      <c r="B115" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="49" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D116" s="50" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E116" s="51" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F116" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -3177,24 +3177,24 @@
       <c r="D117" s="44"/>
       <c r="E117" s="46"/>
       <c r="F117" s="46" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -3265,6 +3265,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B115:F115"/>
     <mergeCell ref="B111:G111"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C98:D98"/>
@@ -3273,7 +3274,6 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B115:F115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
